--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_1_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_1_sawtooth_0.1_.xlsx
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -571,55 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>23.17000000000018</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1038705712479767</v>
+        <v>0.01404771686208994</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2072230847839935</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.962826701173981e-08</v>
-      </c>
+        <v>0.04725468555727605</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.400102936284298</v>
+        <v>4.942310406053373</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[-0.40892186604788705, 9.209127738616484]</t>
+          <t>[0.7203226038878743, 9.164298208218872]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.07260823618159429</v>
+        <v>0.02210045643321923</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07260823618159429</v>
+        <v>0.03370655467896944</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.723316090257464</v>
+        <v>-1.106947561625232</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-3.3082637353117743, -0.13836844520315417]</t>
+          <t>[-2.151000375430849, -0.06289474781961601]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.03329977798280526</v>
+        <v>0.03786700803320597</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06659955596561051</v>
+        <v>0.07573401606641195</v>
       </c>
       <c r="S2" t="n">
-        <v>15.09882950755491</v>
+        <v>11.77630612870789</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.244026322921687, 17.95363269218814]</t>
+          <t>[9.450030727426395, 14.10258152998938]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.034034034034034</v>
+        <v>4.082002002002035</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4844844844844847</v>
+        <v>0.2319319319319368</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.58358358358358</v>
+        <v>7.932072072072133</v>
       </c>
     </row>
     <row r="3">
@@ -654,53 +652,55 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.21000000000035</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007050051324519968</v>
+        <v>0.01625387891395802</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04972400542556574</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>0.04725468555727605</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.387778780781446e-14</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.817064069875506</v>
+        <v>3.908935757805042</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[0.8882484074780965, 8.745879732272915]</t>
+          <t>[0.3032687878588387, 7.514602727751246]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.01643833403480999</v>
+        <v>0.03370655467896944</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03287666806961997</v>
+        <v>0.03370655467896944</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4968685077749626</v>
+        <v>-0.5031579825569237</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.49057903299300065, 1.4843160485429259]</t>
+          <t>[-1.6038160694001942, 0.5975001042863468]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.3228041870447407</v>
+        <v>0.3689838830802956</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3228041870447407</v>
+        <v>0.3689838830802956</v>
       </c>
       <c r="S3" t="n">
-        <v>13.93415806634937</v>
+        <v>14.03652138836598</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.833649526247704, 16.034666606451026]</t>
+          <t>[12.146809808302987, 15.926232968428966]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>22.29549549549581</v>
+        <v>1.901901901901926</v>
       </c>
       <c r="X3" t="n">
-        <v>18.49072072072098</v>
+        <v>-2.258508508508531</v>
       </c>
       <c r="Y3" t="n">
-        <v>26.10027027027065</v>
+        <v>6.062312312312383</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_1_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_1_sawtooth_0.1_.xlsx
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -571,53 +571,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.17000000000018</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01404771686208994</v>
+        <v>0.08852968441352438</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04725468555727605</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>0.2107849628893438</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.319207775298594e-08</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.942310406053373</v>
+        <v>4.190287795382019</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.7203226038878743, 9.164298208218872]</t>
+          <t>[-0.4469836963166518, 8.827559287080689]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.02210045643321923</v>
+        <v>0.07618728744033199</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03370655467896944</v>
+        <v>0.07618728744033199</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.106947561625232</v>
+        <v>-1.459158149415079</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.151000375430849, -0.06289474781961601]</t>
+          <t>[-3.00636894577762, 0.08805264694746207]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.03786700803320597</v>
+        <v>0.06434133710203427</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07573401606641195</v>
+        <v>0.1286826742040685</v>
       </c>
       <c r="S2" t="n">
-        <v>11.77630612870789</v>
+        <v>13.41212799384784</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.450030727426395, 14.10258152998938]</t>
+          <t>[10.760277127923501, 16.06397885977217]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.082002002002035</v>
+        <v>5.109109109109109</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2319319319319368</v>
+        <v>-0.3083083083083089</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.932072072072133</v>
+        <v>10.52652652652653</v>
       </c>
     </row>
     <row r="3">
@@ -652,55 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.75000000000027</v>
+        <v>23.34000000000021</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01625387891395802</v>
+        <v>0.008226713144363296</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04725468555727605</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.387778780781446e-14</v>
-      </c>
+        <v>0.06979921547978707</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>3.908935757805042</v>
+        <v>4.057758483374416</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[0.3032687878588387, 7.514602727751246]</t>
+          <t>[0.7983879982329789, 7.317128968515853]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.03370655467896944</v>
+        <v>0.01486832854660558</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03370655467896944</v>
+        <v>0.02973665709321116</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.5031579825569237</v>
+        <v>-0.3647895373537695</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.6038160694001942, 0.5975001042863468]</t>
+          <t>[-1.3773949772495788, 0.6478159025420398]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.3689838830802956</v>
+        <v>0.4788512742655151</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3689838830802956</v>
+        <v>0.4788512742655151</v>
       </c>
       <c r="S3" t="n">
-        <v>14.03652138836598</v>
+        <v>12.99719433850145</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.146809808302987, 15.926232968428966]</t>
+          <t>[11.185412703220841, 14.808975973782058]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.901901901901926</v>
+        <v>1.355075075075085</v>
       </c>
       <c r="X3" t="n">
-        <v>-2.258508508508531</v>
+        <v>-2.40642642642645</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.062312312312383</v>
+        <v>5.11657657657662</v>
       </c>
     </row>
   </sheetData>
